--- a/EA Code/GKAH_EA/DOE GKAH_EA.xlsx
+++ b/EA Code/GKAH_EA/DOE GKAH_EA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC1C05-AC20-4617-BF50-8592D38E747E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F40C8-B958-4D90-B3CF-35702721D075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{66D871B5-3A47-40FC-A471-7106C682256A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>DOE GKAH_EA</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Total Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barb </t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Karen</t>
   </si>
 </sst>
 </file>
@@ -127,18 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +472,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,44 +482,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
@@ -668,31 +699,31 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
